--- a/backend/file/data.xlsx
+++ b/backend/file/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\Проект\bs-react\backend\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1CAD9-4705-40E1-B96D-CDFAA6692EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A5923-A428-41B2-916E-FBCC395313D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17130,7 +17130,7 @@
         <v>13650</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>52</v>
